--- a/Problems/HW01/LFS/ISICRev4.xlsx
+++ b/Problems/HW01/LFS/ISICRev4.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>ISICCode</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/Problems/HW01/LFS/ISICRev4.xlsx
+++ b/Problems/HW01/LFS/ISICRev4.xlsx
@@ -11449,7 +11449,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11885,7 +11885,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11945,7 +11945,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12037,7 +12037,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12101,7 +12101,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12257,7 +12257,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12497,7 +12497,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12557,7 +12557,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12865,7 +12865,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -12989,7 +12989,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13021,7 +13021,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13145,7 +13145,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
@@ -13457,7 +13457,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>Services</t>
         </is>
       </c>
     </row>
